--- a/eu_basynthec/sourceTest/examples/OD600-Template.xlsx
+++ b/eu_basynthec/sourceTest/examples/OD600-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="5300" windowWidth="27520" windowHeight="12740" tabRatio="500"/>
+    <workbookView xWindow="6360" yWindow="3740" windowWidth="27520" windowHeight="12740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -640,7 +639,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/eu_basynthec/sourceTest/examples/OD600-Template.xlsx
+++ b/eu_basynthec/sourceTest/examples/OD600-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3740" windowWidth="27520" windowHeight="12740" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="24480" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>One of Lin, Log2, Log10, or Ln</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,15 +77,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Strain Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>One of Value, Mean, Median, Std, Var, Error, or Iqr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -552,52 +544,44 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -620,7 +604,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -632,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
